--- a/Crosswalk_2012/Crosswalk_metals.xlsx
+++ b/Crosswalk_2012/Crosswalk_metals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Crosswalk" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$I$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$H$500</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Station!$A$1:$E$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="392">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -1195,6 +1195,12 @@
   </si>
   <si>
     <t>OR_LK_1707030408_02_100106</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.1</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -2049,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2064,7 @@
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4465,7 +4471,7 @@
         <v>138</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>24</v>
@@ -4485,7 +4491,7 @@
         <v>138</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>24</v>
@@ -4505,7 +4511,7 @@
         <v>138</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>24</v>
@@ -5534,7 +5540,7 @@
         <v>138</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>24</v>
@@ -7048,7 +7054,7 @@
         <v>138</v>
       </c>
       <c r="D265" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>24</v>
@@ -9748,7 +9754,7 @@
         <v>86</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>24</v>
@@ -11415,7 +11421,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I500"/>
   <sortState ref="A2:H186">
     <sortCondition ref="C2:C186"/>
     <sortCondition ref="D2:D186"/>
@@ -11430,7 +11435,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:P1048576"/>
     </sheetView>
   </sheetViews>
